--- a/public/Templates/Squad.xlsx
+++ b/public/Templates/Squad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiltiberiusmoldovan/Tibi/FitascSportingRO/public/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8DD85-29A7-CC40-BB19-BA743E934E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2EA40-B074-564B-9D18-2D34F07411A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="26920" xr2:uid="{C40A13C5-9CDB-5D49-B795-8A964AA10268}"/>
+    <workbookView xWindow="-51200" yWindow="-4420" windowWidth="51200" windowHeight="26920" xr2:uid="{C40A13C5-9CDB-5D49-B795-8A964AA10268}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -119,6 +119,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -492,122 +493,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1151,7 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AB1"/>
+      <selection activeCell="AE2" sqref="AE2:AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1165,142 +1166,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="52" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="16"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="24"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
     </row>
     <row r="3" spans="1:31" ht="30" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50"/>
     </row>
     <row r="4" spans="1:31" ht="19" thickBot="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="28"/>
     </row>
     <row r="5" spans="1:31" ht="25" customHeight="1" thickBot="1">
       <c r="A5" s="13" t="s">
@@ -1309,35 +1310,35 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="37"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="31"/>
       <c r="AD5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1346,37 +1347,37 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="9" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="19"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="34"/>
     </row>
     <row r="7" spans="1:31" ht="57" customHeight="1">
       <c r="A7" s="10"/>
@@ -1412,36 +1413,36 @@
       <c r="AE7" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="6" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="34"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="16"/>
       <c r="AE8" s="11"/>
     </row>
     <row r="9" spans="1:31" ht="57" customHeight="1">
@@ -1478,36 +1479,36 @@
       <c r="AE9" s="11"/>
     </row>
     <row r="10" spans="1:31" ht="6" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="34"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="16"/>
       <c r="AE10" s="11"/>
     </row>
     <row r="11" spans="1:31" ht="57" customHeight="1">
@@ -1544,36 +1545,36 @@
       <c r="AE11" s="11"/>
     </row>
     <row r="12" spans="1:31" ht="7" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="34"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="16"/>
       <c r="AE12" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="57" customHeight="1">
@@ -1610,36 +1611,36 @@
       <c r="AE13" s="11"/>
     </row>
     <row r="14" spans="1:31" ht="6" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="34"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="11"/>
     </row>
     <row r="15" spans="1:31" ht="57" customHeight="1">
@@ -1676,36 +1677,36 @@
       <c r="AE15" s="11"/>
     </row>
     <row r="16" spans="1:31" ht="6" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="34"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="16"/>
       <c r="AE16" s="11"/>
     </row>
     <row r="17" spans="1:31" ht="57" customHeight="1">
@@ -1742,77 +1743,90 @@
       <c r="AE17" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="17" thickBot="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="49"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="19"/>
     </row>
     <row r="19" spans="1:31" ht="33" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="43"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A12:AD12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="A4:AE4"/>
+    <mergeCell ref="C5:AC5"/>
+    <mergeCell ref="A6:AE6"/>
+    <mergeCell ref="A8:AD8"/>
+    <mergeCell ref="A10:AD10"/>
     <mergeCell ref="A14:AD14"/>
     <mergeCell ref="A16:AD16"/>
     <mergeCell ref="A18:AE18"/>
@@ -1820,18 +1834,6 @@
     <mergeCell ref="D19:Q19"/>
     <mergeCell ref="R19:AB19"/>
     <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="A4:AE4"/>
-    <mergeCell ref="C5:AC5"/>
-    <mergeCell ref="A6:AE6"/>
-    <mergeCell ref="A8:AD8"/>
-    <mergeCell ref="A10:AD10"/>
-    <mergeCell ref="A12:AD12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:AE3"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
